--- a/hebrewOutputs/hebrew82Comperation_8_Common_alpha=0.2.xlsx
+++ b/hebrewOutputs/hebrew82Comperation_8_Common_alpha=0.2.xlsx
@@ -46,15 +46,15 @@
     <t>personal</t>
   </si>
   <si>
+    <t>רופא:</t>
+  </si>
+  <si>
+    <t>בסדר.</t>
+  </si>
+  <si>
     <t>Unknown</t>
   </si>
   <si>
-    <t>רופא:</t>
-  </si>
-  <si>
-    <t>בסדר.</t>
-  </si>
-  <si>
     <t>בוקר טוב. נעים מאד, דוק.</t>
   </si>
   <si>
@@ -130,6 +130,9 @@
     <t>bc</t>
   </si>
   <si>
+    <t>agree</t>
+  </si>
+  <si>
     <t>כאבה לו הבטן אז הבאנו אותו לפה ובטח הוא קצת התייבש.</t>
   </si>
   <si>
@@ -152,9 +155,6 @@
   </si>
   <si>
     <t>כן.</t>
-  </si>
-  <si>
-    <t>agree</t>
   </si>
   <si>
     <t>כאבי בטן קצת בחילות,</t>
@@ -786,21 +786,21 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -814,10 +814,10 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -828,7 +828,7 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -842,10 +842,10 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -856,10 +856,10 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -884,10 +884,10 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -898,7 +898,7 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
@@ -912,10 +912,10 @@
         <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -940,7 +940,7 @@
         <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D14" t="s">
         <v>7</v>
@@ -954,10 +954,10 @@
         <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -968,10 +968,10 @@
         <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -982,7 +982,7 @@
         <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D17" t="s">
         <v>7</v>
@@ -996,10 +996,10 @@
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1010,7 +1010,7 @@
         <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D19" t="s">
         <v>7</v>
@@ -1024,10 +1024,10 @@
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1038,7 +1038,7 @@
         <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D21" t="s">
         <v>7</v>
@@ -1052,15 +1052,15 @@
         <v>37</v>
       </c>
       <c r="C22" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="D22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B23" t="s">
         <v>27</v>
@@ -1074,27 +1074,27 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B24" t="s">
         <v>37</v>
       </c>
       <c r="C24" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B25" t="s">
         <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D25" t="s">
         <v>7</v>
@@ -1102,13 +1102,13 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B26" t="s">
         <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D26" t="s">
         <v>7</v>
@@ -1116,7 +1116,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B27" t="s">
         <v>6</v>
@@ -1130,41 +1130,41 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B28" t="s">
         <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B29" t="s">
         <v>23</v>
       </c>
       <c r="C29" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B30" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C30" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D30" t="s">
         <v>7</v>
@@ -1178,21 +1178,21 @@
         <v>23</v>
       </c>
       <c r="C31" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B32" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C32" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D32" t="s">
         <v>7</v>
@@ -1206,10 +1206,10 @@
         <v>27</v>
       </c>
       <c r="C33" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1220,7 +1220,7 @@
         <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D34" t="s">
         <v>7</v>
@@ -1234,10 +1234,10 @@
         <v>27</v>
       </c>
       <c r="C35" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1251,7 +1251,7 @@
         <v>29</v>
       </c>
       <c r="D36" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1262,7 +1262,7 @@
         <v>53</v>
       </c>
       <c r="C37" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D37" t="s">
         <v>7</v>
@@ -1276,10 +1276,10 @@
         <v>37</v>
       </c>
       <c r="C38" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1290,7 +1290,7 @@
         <v>55</v>
       </c>
       <c r="C39" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D39" t="s">
         <v>7</v>
@@ -1304,10 +1304,10 @@
         <v>57</v>
       </c>
       <c r="C40" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D40" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1332,10 +1332,10 @@
         <v>29</v>
       </c>
       <c r="C42" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D42" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1346,7 +1346,7 @@
         <v>37</v>
       </c>
       <c r="C43" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D43" t="s">
         <v>7</v>
@@ -1363,7 +1363,7 @@
         <v>27</v>
       </c>
       <c r="D44" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1377,7 +1377,7 @@
         <v>27</v>
       </c>
       <c r="D45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1388,10 +1388,10 @@
         <v>27</v>
       </c>
       <c r="C46" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D46" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1405,7 +1405,7 @@
         <v>27</v>
       </c>
       <c r="D47" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1416,7 +1416,7 @@
         <v>66</v>
       </c>
       <c r="C48" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D48" t="s">
         <v>7</v>
@@ -1433,7 +1433,7 @@
         <v>27</v>
       </c>
       <c r="D49" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1444,7 +1444,7 @@
         <v>6</v>
       </c>
       <c r="C50" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D50" t="s">
         <v>7</v>
@@ -1458,10 +1458,10 @@
         <v>27</v>
       </c>
       <c r="C51" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D51" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1472,7 +1472,7 @@
         <v>66</v>
       </c>
       <c r="C52" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D52" t="s">
         <v>7</v>
@@ -1486,10 +1486,10 @@
         <v>5</v>
       </c>
       <c r="C53" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D53" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1500,7 +1500,7 @@
         <v>6</v>
       </c>
       <c r="C54" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="D54" t="s">
         <v>7</v>
@@ -1514,10 +1514,10 @@
         <v>27</v>
       </c>
       <c r="C55" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D55" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1528,10 +1528,10 @@
         <v>17</v>
       </c>
       <c r="C56" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D56" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1542,7 +1542,7 @@
         <v>23</v>
       </c>
       <c r="C57" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D57" t="s">
         <v>7</v>
@@ -1559,7 +1559,7 @@
         <v>27</v>
       </c>
       <c r="D58" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1570,7 +1570,7 @@
         <v>55</v>
       </c>
       <c r="C59" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D59" t="s">
         <v>7</v>
@@ -1584,10 +1584,10 @@
         <v>27</v>
       </c>
       <c r="C60" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D60" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1629,7 +1629,7 @@
         <v>27</v>
       </c>
       <c r="D63" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1640,7 +1640,7 @@
         <v>6</v>
       </c>
       <c r="C64" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D64" t="s">
         <v>7</v>
@@ -1654,7 +1654,7 @@
         <v>68</v>
       </c>
       <c r="C65" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D65" t="s">
         <v>7</v>
@@ -1671,7 +1671,7 @@
         <v>5</v>
       </c>
       <c r="D66" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1682,7 +1682,7 @@
         <v>6</v>
       </c>
       <c r="C67" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D67" t="s">
         <v>7</v>
@@ -1696,10 +1696,10 @@
         <v>31</v>
       </c>
       <c r="C68" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D68" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1710,7 +1710,7 @@
         <v>6</v>
       </c>
       <c r="C69" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D69" t="s">
         <v>7</v>
@@ -1727,7 +1727,7 @@
         <v>27</v>
       </c>
       <c r="D70" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1741,7 +1741,7 @@
         <v>27</v>
       </c>
       <c r="D71" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1752,10 +1752,10 @@
         <v>92</v>
       </c>
       <c r="C72" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D72" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1766,7 +1766,7 @@
         <v>94</v>
       </c>
       <c r="C73" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D73" t="s">
         <v>7</v>
@@ -1780,10 +1780,10 @@
         <v>92</v>
       </c>
       <c r="C74" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D74" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1794,10 +1794,10 @@
         <v>29</v>
       </c>
       <c r="C75" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D75" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1808,10 +1808,10 @@
         <v>5</v>
       </c>
       <c r="C76" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D76" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1822,7 +1822,7 @@
         <v>31</v>
       </c>
       <c r="C77" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D77" t="s">
         <v>7</v>
@@ -1836,7 +1836,7 @@
         <v>55</v>
       </c>
       <c r="C78" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D78" t="s">
         <v>7</v>
@@ -1850,10 +1850,10 @@
         <v>53</v>
       </c>
       <c r="C79" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D79" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1864,7 +1864,7 @@
         <v>19</v>
       </c>
       <c r="C80" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D80" t="s">
         <v>7</v>
@@ -1878,10 +1878,10 @@
         <v>27</v>
       </c>
       <c r="C81" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D81" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1892,7 +1892,7 @@
         <v>5</v>
       </c>
       <c r="C82" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D82" t="s">
         <v>7</v>
@@ -1906,10 +1906,10 @@
         <v>105</v>
       </c>
       <c r="C83" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D83" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1920,10 +1920,10 @@
         <v>29</v>
       </c>
       <c r="C84" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D84" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1934,7 +1934,7 @@
         <v>55</v>
       </c>
       <c r="C85" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D85" t="s">
         <v>7</v>
@@ -1948,10 +1948,10 @@
         <v>27</v>
       </c>
       <c r="C86" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D86" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1962,10 +1962,10 @@
         <v>27</v>
       </c>
       <c r="C87" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D87" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1979,7 +1979,7 @@
         <v>29</v>
       </c>
       <c r="D88" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1990,7 +1990,7 @@
         <v>5</v>
       </c>
       <c r="C89" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D89" t="s">
         <v>7</v>
@@ -2004,10 +2004,10 @@
         <v>113</v>
       </c>
       <c r="C90" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D90" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2032,10 +2032,10 @@
         <v>37</v>
       </c>
       <c r="C92" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D92" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2046,7 +2046,7 @@
         <v>55</v>
       </c>
       <c r="C93" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="D93" t="s">
         <v>7</v>
@@ -2063,7 +2063,7 @@
         <v>29</v>
       </c>
       <c r="D94" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2088,7 +2088,7 @@
         <v>55</v>
       </c>
       <c r="C96" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D96" t="s">
         <v>7</v>
@@ -2105,7 +2105,7 @@
         <v>29</v>
       </c>
       <c r="D97" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2119,7 +2119,7 @@
         <v>27</v>
       </c>
       <c r="D98" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2130,10 +2130,10 @@
         <v>57</v>
       </c>
       <c r="C99" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2144,10 +2144,10 @@
         <v>17</v>
       </c>
       <c r="C100" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D100" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2161,7 +2161,7 @@
         <v>27</v>
       </c>
       <c r="D101" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2172,7 +2172,7 @@
         <v>19</v>
       </c>
       <c r="C102" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D102" t="s">
         <v>7</v>
@@ -2186,10 +2186,10 @@
         <v>27</v>
       </c>
       <c r="C103" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D103" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2200,10 +2200,10 @@
         <v>27</v>
       </c>
       <c r="C104" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D104" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2214,10 +2214,10 @@
         <v>27</v>
       </c>
       <c r="C105" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D105" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2228,10 +2228,10 @@
         <v>27</v>
       </c>
       <c r="C106" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D106" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2242,10 +2242,10 @@
         <v>29</v>
       </c>
       <c r="C107" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D107" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2256,7 +2256,7 @@
         <v>19</v>
       </c>
       <c r="C108" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D108" t="s">
         <v>7</v>
@@ -2273,7 +2273,7 @@
         <v>27</v>
       </c>
       <c r="D109" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2287,7 +2287,7 @@
         <v>5</v>
       </c>
       <c r="D110" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
